--- a/County/Covid_29019_ww_omicron.xlsx
+++ b/County/Covid_29019_ww_omicron.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/County/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5504F78E-55D3-5B43-8D44-B6571BA0A94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D625B47-2D8D-8C4A-A318-31CF5E4A7BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13940" yWindow="6760" windowWidth="21220" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid_29019" sheetId="1" r:id="rId1"/>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B514"/>
+  <dimension ref="A1:B1248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A1222" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5007,6 +5007,3676 @@
         <v>23.434540172420899</v>
       </c>
     </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>44532</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>44533</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>44534</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>44538</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>44539</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>44540</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>44541</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>44544</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>44546</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>44547</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>44549</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>44551</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>44552</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>44553</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>44555</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>44557</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>44559</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>44567</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>44569</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>44570</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>44577</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>44587</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>44595</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>44596</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>44597</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>44598</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>44599</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>44601</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>44604</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>44605</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>44609</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>44611</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>44612</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>44613</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>44616</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>44618</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>44619</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606" s="1">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>44625</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>44633</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>44646</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>44647</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>44650</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>44654</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>44655</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646" s="1">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <v>44666</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>44667</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <v>44668</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>44669</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656" s="1">
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658" s="1">
+        <v>44674</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660" s="1">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663" s="1">
+        <v>44679</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664" s="1">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666" s="1">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667" s="1">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668" s="1">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669" s="1">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670" s="1">
+        <v>44686</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671" s="1">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672" s="1">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673" s="1">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674" s="1">
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676" s="1">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677" s="1">
+        <v>44693</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678" s="1">
+        <v>44694</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679" s="1">
+        <v>44695</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680" s="1">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681" s="1">
+        <v>44697</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682" s="1">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683" s="1">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684" s="1">
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685" s="1">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686" s="1">
+        <v>44702</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687" s="1">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A688" s="1">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690" s="1">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691" s="1">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693" s="1">
+        <v>44709</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694" s="1">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695" s="1">
+        <v>44711</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696" s="1">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697" s="1">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698" s="1">
+        <v>44714</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699" s="1">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700" s="1">
+        <v>44716</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701" s="1">
+        <v>44717</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702" s="1">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703" s="1">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704" s="1">
+        <v>44720</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705" s="1">
+        <v>44721</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706" s="1">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707" s="1">
+        <v>44723</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708" s="1">
+        <v>44724</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709" s="1">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710" s="1">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711" s="1">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712" s="1">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713" s="1">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714" s="1">
+        <v>44730</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715" s="1">
+        <v>44731</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716" s="1">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717" s="1">
+        <v>44733</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718" s="1">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719" s="1">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720" s="1">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721" s="1">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722" s="1">
+        <v>44738</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723" s="1">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724" s="1">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725" s="1">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726" s="1">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A727" s="1">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A728" s="1">
+        <v>44744</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A729" s="1">
+        <v>44745</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A730" s="1">
+        <v>44746</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A731" s="1">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A732" s="1">
+        <v>44748</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A733" s="1">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A734" s="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A735" s="1">
+        <v>44751</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A736" s="1">
+        <v>44752</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A737" s="1">
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A738" s="1">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A739" s="1">
+        <v>44755</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A740" s="1">
+        <v>44756</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A741" s="1">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A742" s="1">
+        <v>44758</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A743" s="1">
+        <v>44759</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A744" s="1">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A745" s="1">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A746" s="1">
+        <v>44762</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A747" s="1">
+        <v>44763</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A748" s="1">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A749" s="1">
+        <v>44765</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A750" s="1">
+        <v>44766</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A751" s="1">
+        <v>44767</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A752" s="1">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A753" s="1">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A754" s="1">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A755" s="1">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A756" s="1">
+        <v>44772</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A757" s="1">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A758" s="1">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A759" s="1">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A760" s="1">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A761" s="1">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A762" s="1">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A763" s="1">
+        <v>44779</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A764" s="1">
+        <v>44780</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A765" s="1">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A766" s="1">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A767" s="1">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A768" s="1">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A769" s="1">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A770" s="1">
+        <v>44786</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A771" s="1">
+        <v>44787</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A772" s="1">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A773" s="1">
+        <v>44789</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A774" s="1">
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A775" s="1">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A776" s="1">
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A777" s="1">
+        <v>44793</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A778" s="1">
+        <v>44794</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A779" s="1">
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A780" s="1">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A781" s="1">
+        <v>44797</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A782" s="1">
+        <v>44798</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A783" s="1">
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A784" s="1">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A785" s="1">
+        <v>44801</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A786" s="1">
+        <v>44802</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A787" s="1">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A788" s="1">
+        <v>44804</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A789" s="1">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A790" s="1">
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A791" s="1">
+        <v>44807</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A792" s="1">
+        <v>44808</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A793" s="1">
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A794" s="1">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A795" s="1">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A796" s="1">
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A797" s="1">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A798" s="1">
+        <v>44814</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A799" s="1">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A800" s="1">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A801" s="1">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A802" s="1">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A803" s="1">
+        <v>44819</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A804" s="1">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A805" s="1">
+        <v>44821</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A806" s="1">
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A807" s="1">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A808" s="1">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A809" s="1">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A810" s="1">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A811" s="1">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A812" s="1">
+        <v>44828</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A813" s="1">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A814" s="1">
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815" s="1">
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A816" s="1">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A817" s="1">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A818" s="1">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A819" s="1">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A820" s="1">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A821" s="1">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A822" s="1">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A823" s="1">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A824" s="1">
+        <v>44840</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A825" s="1">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A826" s="1">
+        <v>44842</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A827" s="1">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A828" s="1">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A829" s="1">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A830" s="1">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A831" s="1">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A832" s="1">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833" s="1">
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A834" s="1">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A835" s="1">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A836" s="1">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A837" s="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A838" s="1">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A839" s="1">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A840" s="1">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A841" s="1">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A842" s="1">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A843" s="1">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A844" s="1">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A845" s="1">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A846" s="1">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A847" s="1">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A848" s="1">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A849" s="1">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A850" s="1">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A851" s="1">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A852" s="1">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A853" s="1">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A854" s="1">
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A855" s="1">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A856" s="1">
+        <v>44872</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A857" s="1">
+        <v>44873</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A858" s="1">
+        <v>44874</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A859" s="1">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A860" s="1">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A861" s="1">
+        <v>44877</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A862" s="1">
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A863" s="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A864" s="1">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A865" s="1">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A866" s="1">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A867" s="1">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A868" s="1">
+        <v>44884</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A869" s="1">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A870" s="1">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A871" s="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A872" s="1">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A873" s="1">
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A874" s="1">
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A875" s="1">
+        <v>44891</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A876" s="1">
+        <v>44892</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A877" s="1">
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A878" s="1">
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A879" s="1">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A880" s="1">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A881" s="1">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A882" s="1">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A883" s="1">
+        <v>44899</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A884" s="1">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A885" s="1">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A886" s="1">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A887" s="1">
+        <v>44903</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A888" s="1">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A889" s="1">
+        <v>44905</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A890" s="1">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A891" s="1">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A892" s="1">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A893" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A894" s="1">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A895" s="1">
+        <v>44911</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A896" s="1">
+        <v>44912</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A897" s="1">
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A898" s="1">
+        <v>44914</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A899" s="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A900" s="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A901" s="1">
+        <v>44917</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A902" s="1">
+        <v>44918</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A903" s="1">
+        <v>44919</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A904" s="1">
+        <v>44920</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A905" s="1">
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A906" s="1">
+        <v>44922</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A907" s="1">
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A908" s="1">
+        <v>44924</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A909" s="1">
+        <v>44925</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A910" s="1">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A911" s="1">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A912" s="1">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A913" s="1">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A914" s="1">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A915" s="1">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A916" s="1">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A917" s="1">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A918" s="1">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A919" s="1">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A920" s="1">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A921" s="1">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A922" s="1">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A923" s="1">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A924" s="1">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A925" s="1">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A926" s="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A927" s="1">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A928" s="1">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A929" s="1">
+        <v>44945</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A930" s="1">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A931" s="1">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A932" s="1">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A933" s="1">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A934" s="1">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A935" s="1">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A936" s="1">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A937" s="1">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A938" s="1">
+        <v>44954</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A939" s="1">
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A940" s="1">
+        <v>44956</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A941" s="1">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A942" s="1">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A943" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A944" s="1">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A945" s="1">
+        <v>44961</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A946" s="1">
+        <v>44962</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A947" s="1">
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A948" s="1">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A949" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A950" s="1">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A951" s="1">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A952" s="1">
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A953" s="1">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A954" s="1">
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A955" s="1">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A956" s="1">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A957" s="1">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A958" s="1">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A959" s="1">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A960" s="1">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A961" s="1">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A962" s="1">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A963" s="1">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A964" s="1">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A965" s="1">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A966" s="1">
+        <v>44982</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A967" s="1">
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A968" s="1">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A969" s="1">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A970" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A971" s="1">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A972" s="1">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A973" s="1">
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A974" s="1">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A975" s="1">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A976" s="1">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A977" s="1">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A978" s="1">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A979" s="1">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A980" s="1">
+        <v>44996</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A981" s="1">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A982" s="1">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A983" s="1">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A984" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A985" s="1">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A986" s="1">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A987" s="1">
+        <v>45003</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A988" s="1">
+        <v>45004</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A989" s="1">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A990" s="1">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A991" s="1">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A992" s="1">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A993" s="1">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A994" s="1">
+        <v>45010</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A995" s="1">
+        <v>45011</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A996" s="1">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A997" s="1">
+        <v>45013</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A998" s="1">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A999" s="1">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1000" s="1">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1001" s="1">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1002" s="1">
+        <v>45018</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1003" s="1">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1004" s="1">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1005" s="1">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1006" s="1">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1007" s="1">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1008" s="1">
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1009" s="1">
+        <v>45025</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1010" s="1">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1011" s="1">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1012" s="1">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1013" s="1">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1014" s="1">
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1015" s="1">
+        <v>45031</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1016" s="1">
+        <v>45032</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1017" s="1">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1018" s="1">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1019" s="1">
+        <v>45035</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1020" s="1">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1021" s="1">
+        <v>45037</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1022" s="1">
+        <v>45038</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1023" s="1">
+        <v>45039</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1024" s="1">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1025" s="1">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1026" s="1">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1027" s="1">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1028" s="1">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1029" s="1">
+        <v>45045</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1030" s="1">
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1031" s="1">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1032" s="1">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1033" s="1">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1034" s="1">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1035" s="1">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1036" s="1">
+        <v>45052</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1037" s="1">
+        <v>45053</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1038" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1039" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1040" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1041" s="1">
+        <v>45057</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1042" s="1">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1043" s="1">
+        <v>45059</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1044" s="1">
+        <v>45060</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1045" s="1">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1046" s="1">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1047" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1048" s="1">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1049" s="1">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1050" s="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1051" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1052" s="1">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1053" s="1">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1054" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1055" s="1">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1056" s="1">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1057" s="1">
+        <v>45073</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1058" s="1">
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1059" s="1">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1060" s="1">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1061" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1062" s="1">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1063" s="1">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1064" s="1">
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1065" s="1">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1066" s="1">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1067" s="1">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1068" s="1">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1069" s="1">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1070" s="1">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1071" s="1">
+        <v>45087</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1072" s="1">
+        <v>45088</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1073" s="1">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1074" s="1">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1075" s="1">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1076" s="1">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1077" s="1">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1078" s="1">
+        <v>45094</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1079" s="1">
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1080" s="1">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1081" s="1">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1082" s="1">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1083" s="1">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1084" s="1">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1085" s="1">
+        <v>45101</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1086" s="1">
+        <v>45102</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1087" s="1">
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1088" s="1">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1089" s="1">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1090" s="1">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1091" s="1">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1092" s="1">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1093" s="1">
+        <v>45109</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1094" s="1">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1095" s="1">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1096" s="1">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1097" s="1">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1098" s="1">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1099" s="1">
+        <v>45115</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1100" s="1">
+        <v>45116</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1101" s="1">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1102" s="1">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1103" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1104" s="1">
+        <v>45120</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1105" s="1">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1106" s="1">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1107" s="1">
+        <v>45123</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1108" s="1">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1109" s="1">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1110" s="1">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1111" s="1">
+        <v>45127</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1112" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1113" s="1">
+        <v>45129</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1114" s="1">
+        <v>45130</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1115" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1116" s="1">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1117" s="1">
+        <v>45133</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1118" s="1">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1119" s="1">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1120" s="1">
+        <v>45136</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1121" s="1">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1122" s="1">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1123" s="1">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1124" s="1">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1125" s="1">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1126" s="1">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1127" s="1">
+        <v>45143</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1128" s="1">
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1129" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1130" s="1">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1131" s="1">
+        <v>45147</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1132" s="1">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1133" s="1">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1134" s="1">
+        <v>45150</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1135" s="1">
+        <v>45151</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1136" s="1">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1137" s="1">
+        <v>45153</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1138" s="1">
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1139" s="1">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1140" s="1">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1141" s="1">
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1142" s="1">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1143" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1144" s="1">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1145" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1146" s="1">
+        <v>45162</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1147" s="1">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1148" s="1">
+        <v>45164</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1149" s="1">
+        <v>45165</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1150" s="1">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1151" s="1">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1152" s="1">
+        <v>45168</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1153" s="1">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1154" s="1">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1155" s="1">
+        <v>45171</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1156" s="1">
+        <v>45172</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1157" s="1">
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1158" s="1">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1159" s="1">
+        <v>45175</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1160" s="1">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1161" s="1">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1162" s="1">
+        <v>45178</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1163" s="1">
+        <v>45179</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1164" s="1">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1165" s="1">
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1166" s="1">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1167" s="1">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1168" s="1">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1169" s="1">
+        <v>45185</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1170" s="1">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1171" s="1">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1172" s="1">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1173" s="1">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1174" s="1">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1175" s="1">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1176" s="1">
+        <v>45192</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1177" s="1">
+        <v>45193</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1178" s="1">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1179" s="1">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1180" s="1">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1181" s="1">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1182" s="1">
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1183" s="1">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1184" s="1">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1185" s="1">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1186" s="1">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1187" s="1">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1188" s="1">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1189" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1190" s="1">
+        <v>45206</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1191" s="1">
+        <v>45207</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1192" s="1">
+        <v>45208</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1193" s="1">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1194" s="1">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1195" s="1">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1196" s="1">
+        <v>45212</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1197" s="1">
+        <v>45213</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1198" s="1">
+        <v>45214</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1199" s="1">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1200" s="1">
+        <v>45216</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1201" s="1">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1202" s="1">
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1203" s="1">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1204" s="1">
+        <v>45220</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1205" s="1">
+        <v>45221</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1206" s="1">
+        <v>45222</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1207" s="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1208" s="1">
+        <v>45224</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1209" s="1">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1210" s="1">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1211" s="1">
+        <v>45227</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1212" s="1">
+        <v>45228</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1213" s="1">
+        <v>45229</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1214" s="1">
+        <v>45230</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1215" s="1">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1216" s="1">
+        <v>45232</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1217" s="1">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1218" s="1">
+        <v>45234</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1219" s="1">
+        <v>45235</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1220" s="1">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1221" s="1">
+        <v>45237</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1222" s="1">
+        <v>45238</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1223" s="1">
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1224" s="1">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1225" s="1">
+        <v>45241</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1226" s="1">
+        <v>45242</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1227" s="1">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1228" s="1">
+        <v>45244</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1229" s="1">
+        <v>45245</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1230" s="1">
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1231" s="1">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1232" s="1">
+        <v>45248</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1233" s="1">
+        <v>45249</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1234" s="1">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1235" s="1">
+        <v>45251</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1236" s="1">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1237" s="1">
+        <v>45253</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1238" s="1">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1239" s="1">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1240" s="1">
+        <v>45256</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1241" s="1">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1242" s="1">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1243" s="1">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1244" s="1">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1245" s="1">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1246" s="1">
+        <v>45262</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1247" s="1">
+        <v>45263</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1248" s="1">
+        <v>45264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
